--- a/data/trans_orig/IP05A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07EA4105-D4A6-4447-A68B-C7F96A3B1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CBC346-1F6F-4AE2-9C7F-7079417DB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27D5F45C-125B-45E1-8DB8-C11B6799281F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D50800E-B8CD-4A26-B2F1-47CB5F4B7B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="509">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 98,95%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,7 +77,7 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>87,84%</t>
+    <t>85,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,13 +86,13 @@
     <t>95,91%</t>
   </si>
   <si>
-    <t>83,49%</t>
+    <t>80,28%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>88,89%</t>
+    <t>89,19%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -104,19 +104,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>19,72%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>11,11%</t>
+    <t>10,81%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1453 +137,1435 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
+    <t>4,02%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5A8B0-5848-402A-8375-3E065E5B9D76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692A9289-1093-4C63-847C-E67EDB809314}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2433,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2442,13 +2424,13 @@
         <v>2701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2460,10 +2442,10 @@
         <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,7 +2501,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2531,13 +2513,13 @@
         <v>192679</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>276</v>
@@ -2546,13 +2528,13 @@
         <v>172533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>569</v>
@@ -2561,13 +2543,13 @@
         <v>365213</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2564,13 @@
         <v>14156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2597,13 +2579,13 @@
         <v>19120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2612,13 +2594,13 @@
         <v>33276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2615,13 @@
         <v>4708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2648,13 +2630,13 @@
         <v>2329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2663,13 +2645,13 @@
         <v>7038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,7 +2707,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2737,13 +2719,13 @@
         <v>130273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -2752,13 +2734,13 @@
         <v>121083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -2767,13 +2749,13 @@
         <v>251355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2770,13 @@
         <v>14939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2803,13 +2785,13 @@
         <v>14828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -2818,13 +2800,13 @@
         <v>29766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2821,13 @@
         <v>3721</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2854,13 +2836,13 @@
         <v>1241</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2869,13 +2851,13 @@
         <v>4962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2913,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2943,13 +2925,13 @@
         <v>176440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -2958,13 +2940,13 @@
         <v>176554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -2973,13 +2955,13 @@
         <v>352994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2976,13 @@
         <v>23166</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3009,13 +2991,13 @@
         <v>21452</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -3024,13 +3006,13 @@
         <v>44618</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3027,13 @@
         <v>4764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3060,13 +3042,13 @@
         <v>5173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3075,13 +3057,13 @@
         <v>9937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3131,13 @@
         <v>638090</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>883</v>
@@ -3164,13 +3146,13 @@
         <v>589695</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>1842</v>
@@ -3179,13 +3161,13 @@
         <v>1227786</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3182,13 @@
         <v>63180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -3215,13 +3197,13 @@
         <v>71167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -3230,13 +3212,13 @@
         <v>134347</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3233,13 @@
         <v>14646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3266,13 +3248,13 @@
         <v>11445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -3281,13 +3263,13 @@
         <v>26091</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3325,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7EC24F-CE40-481B-8B78-C406AF7812BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8999B-A524-4B8F-83FE-537A46EB6A07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3381,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3491,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -3506,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -3521,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -3545,7 +3527,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3560,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3575,7 +3557,7 @@
         <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3578,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3611,7 +3593,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3626,7 +3608,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,10 +3676,10 @@
         <v>123405</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>173</v>
@@ -3778,10 +3760,10 @@
         <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3778,13 @@
         <v>806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3811,13 +3793,13 @@
         <v>1494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3826,13 +3808,13 @@
         <v>2300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3870,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3900,13 +3882,13 @@
         <v>202894</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -3915,13 +3897,13 @@
         <v>190365</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M12" s="7">
         <v>588</v>
@@ -3930,13 +3912,13 @@
         <v>393260</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3933,13 @@
         <v>16213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3966,13 +3948,13 @@
         <v>9496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -3981,13 +3963,13 @@
         <v>25709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3984,13 @@
         <v>4059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4017,13 +3999,13 @@
         <v>5407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4032,13 +4014,13 @@
         <v>9466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4106,13 +4088,13 @@
         <v>153304</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -4121,13 +4103,13 @@
         <v>144518</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -4136,13 +4118,13 @@
         <v>297822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4139,13 @@
         <v>12660</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4172,13 +4154,13 @@
         <v>10858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -4187,13 +4169,13 @@
         <v>23518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4190,13 @@
         <v>628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4229,7 +4211,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -4238,13 +4220,13 @@
         <v>628</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4282,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4312,13 +4294,13 @@
         <v>181600</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4327,13 +4309,13 @@
         <v>186555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>490</v>
@@ -4342,13 +4324,13 @@
         <v>368155</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4345,13 @@
         <v>19641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -4378,13 +4360,13 @@
         <v>16216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -4393,13 +4375,13 @@
         <v>35857</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4396,13 @@
         <v>6510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4429,13 +4411,13 @@
         <v>5229</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4444,13 +4426,13 @@
         <v>11739</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4500,13 @@
         <v>685657</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H24" s="7">
         <v>948</v>
@@ -4533,13 +4515,13 @@
         <v>657944</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="M24" s="7">
         <v>1925</v>
@@ -4548,13 +4530,13 @@
         <v>1343601</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4551,13 @@
         <v>52844</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -4584,13 +4566,13 @@
         <v>37928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4599,13 +4581,13 @@
         <v>90771</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4602,13 @@
         <v>12004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4635,13 +4617,13 @@
         <v>12130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4650,10 +4632,10 @@
         <v>24134</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>288</v>
@@ -4712,7 +4694,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4733,7 +4715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D4854-826F-402A-A298-338DCADE8231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59C736-A045-4E6F-9D32-6EC381C059A6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4875,7 +4857,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -4890,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -4914,7 +4896,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4929,7 +4911,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4944,7 +4926,7 @@
         <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4947,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4980,7 +4962,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4995,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5045,13 @@
         <v>117392</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -5078,13 +5060,13 @@
         <v>106300</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -5093,13 +5075,13 @@
         <v>223692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5096,13 @@
         <v>4346</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5129,13 +5111,13 @@
         <v>4218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5144,13 +5126,13 @@
         <v>8564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5147,13 @@
         <v>764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5186,7 +5168,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5195,13 +5177,13 @@
         <v>764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5239,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5269,13 +5251,13 @@
         <v>200862</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7">
         <v>293</v>
@@ -5284,13 +5266,13 @@
         <v>181882</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>590</v>
@@ -5299,13 +5281,13 @@
         <v>382744</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5302,13 @@
         <v>13383</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5335,13 +5317,13 @@
         <v>16890</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5350,13 +5332,13 @@
         <v>30273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5353,13 @@
         <v>9380</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5386,13 +5368,13 @@
         <v>7939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5401,13 +5383,13 @@
         <v>17320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5475,13 +5457,13 @@
         <v>137853</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -5490,13 +5472,13 @@
         <v>126717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>420</v>
@@ -5505,13 +5487,13 @@
         <v>264570</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5508,13 @@
         <v>18052</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5541,13 +5523,13 @@
         <v>15941</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5556,13 +5538,13 @@
         <v>33993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5559,13 @@
         <v>10768</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5592,13 +5574,13 @@
         <v>12229</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -5607,13 +5589,13 @@
         <v>22997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,7 +5651,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5681,13 +5663,13 @@
         <v>184612</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -5696,13 +5678,13 @@
         <v>195535</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
@@ -5711,13 +5693,13 @@
         <v>380148</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5714,13 @@
         <v>16880</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5747,13 +5729,13 @@
         <v>8731</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -5762,13 +5744,13 @@
         <v>25611</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5765,13 @@
         <v>1898</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5798,13 +5780,13 @@
         <v>688</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5813,13 +5795,13 @@
         <v>2585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5869,13 @@
         <v>666294</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H24" s="7">
         <v>948</v>
@@ -5902,13 +5884,13 @@
         <v>632960</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>389</v>
+        <v>95</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M24" s="7">
         <v>1899</v>
@@ -5917,13 +5899,13 @@
         <v>1299254</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5920,13 @@
         <v>52661</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -5953,13 +5935,13 @@
         <v>45780</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -5968,13 +5950,13 @@
         <v>98441</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +5971,13 @@
         <v>22810</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6004,13 +5986,13 @@
         <v>20856</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -6019,10 +6001,10 @@
         <v>43666</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>408</v>
@@ -6081,7 +6063,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6102,7 +6084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED95AADA-2D08-405B-92B6-D6C32B391339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1211F810-59EE-43A9-847F-B565A2F37084}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6298,7 +6280,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6313,7 +6295,7 @@
         <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6331,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6364,7 +6346,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>414</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6444,7 @@
         <v>214257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>420</v>
@@ -6540,7 +6522,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6570,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,7 +6608,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6638,13 +6620,13 @@
         <v>235112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>433</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>264</v>
@@ -6653,13 +6635,13 @@
         <v>182273</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>587</v>
@@ -6668,13 +6650,13 @@
         <v>417385</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6671,13 @@
         <v>9640</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -6704,13 +6686,13 @@
         <v>3719</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -6719,13 +6701,13 @@
         <v>13359</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6722,13 @@
         <v>5434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -6755,13 +6737,13 @@
         <v>6360</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6770,10 +6752,10 @@
         <v>11794</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>455</v>
@@ -6832,7 +6814,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6862,10 +6844,10 @@
         <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -6874,13 +6856,13 @@
         <v>325226</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6877,13 @@
         <v>8222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6910,13 +6892,13 @@
         <v>5956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6925,13 +6907,13 @@
         <v>14179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,7 +6934,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6967,7 +6949,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6982,7 +6964,7 @@
         <v>27</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7020,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7050,13 +7032,13 @@
         <v>164671</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -7065,13 +7047,13 @@
         <v>161719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>449</v>
@@ -7080,13 +7062,13 @@
         <v>326389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7083,13 @@
         <v>6071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>482</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>483</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -7116,13 +7098,13 @@
         <v>7620</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>485</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -7131,13 +7113,13 @@
         <v>13690</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7134,13 @@
         <v>3372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7167,13 +7149,13 @@
         <v>1433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7182,13 +7164,13 @@
         <v>4805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7238,13 @@
         <v>689807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>487</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H24" s="7">
         <v>895</v>
@@ -7271,13 +7253,13 @@
         <v>622936</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>1824</v>
@@ -7286,13 +7268,13 @@
         <v>1312743</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,10 +7292,10 @@
         <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -7322,13 +7304,13 @@
         <v>19573</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -7337,13 +7319,13 @@
         <v>43918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7340,13 @@
         <v>9218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -7373,13 +7355,13 @@
         <v>8398</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -7388,13 +7370,13 @@
         <v>17617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7432,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
